--- a/medicine/Enfance/Les_Petites_Filles_modèles/Les_Petites_Filles_modèles.xlsx
+++ b/medicine/Enfance/Les_Petites_Filles_modèles/Les_Petites_Filles_modèles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Petites_Filles_mod%C3%A8les</t>
+          <t>Les_Petites_Filles_modèles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Petites Filles modèles est un roman pour enfants de la comtesse de Ségur publié en mai 1858 dans la Bibliothèque des chemins de fer. Il est le second volet de la trilogie centrée sur Sophie de Réan, faisant suite aux Malheurs de Sophie (février 1858) et précédant Les Vacances (novembre 1859).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Petites_Filles_mod%C3%A8les</t>
+          <t>Les_Petites_Filles_modèles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Citation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En préface, la comtesse de Ségur écrit :
 « Mes Petites Filles modèles ne sont pas une création ; elles existent bien réellement : ce sont des portraits ; la preuve en est dans leurs imperfections mêmes. Elles ont des défauts, des ombres légères qui font ressortir le charme du portrait et attestent l'existence du modèle. Camille et Madeleine sont une réalité dont peut s'assurer toute personne qui connaît l'auteur. »
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Petites_Filles_mod%C3%A8les</t>
+          <t>Les_Petites_Filles_modèles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Petites Filles modèles relate l'histoire d'une famille noble du XIXe siècle. Madame de Fleurville est veuve de guerre depuis six ans et élève ses deux filles prénommées Camille et Madeleine. Un jour, aux abords du mur entourant le château, un carrosse se renverse avec deux personnes à son bord. Il s'agit de Madame de Rosbourg et de sa jeune enfant, Marguerite. Elles n'ont plus de nouvelles du père de famille qui est un capitaine de frégate disparu en mer depuis peu dans l'Atlantique.
 Ces nouveaux personnages présentés, le roman est également la suite des aventures de Sophie, héroïne des Malheurs de Sophie, qui apparaît après la présentation de Camille et de Madeleine de Fleurville.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Petites_Filles_mod%C3%A8les</t>
+          <t>Les_Petites_Filles_modèles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Adaptations cinématographiques :
 1952 : Les Petites filles modèles film français (inachevé) d'Éric Rohmer avec Josette Sinclair (Madame de Fleurville), Josée Doucet (Madame de Rosbourg) et Olga Baïdar-Poliakoff (Madame Fichini)
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Les_Petites_Filles_mod%C3%A8les</t>
+          <t>Les_Petites_Filles_modèles</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les Petites Filles modèles, vingt gravures originales de Leonor Fini, toutes signées par l'artiste, deux cent soixante-quinze exemplaires numériotés, éditions Arts et valeurs, Paris, 1973.</t>
         </is>
